--- a/Result/제주EV충전 EDA.xlsx
+++ b/Result/제주EV충전 EDA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/1112658/PycharmProjects/electric_damand/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE7B8D7-5F17-E34E-B900-84E55C1776E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E8B4DAA-6B61-7B4F-8EA1-50A0DF27B648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6060" yWindow="760" windowWidth="24680" windowHeight="19880" activeTab="4" xr2:uid="{095DD224-26E5-234F-8D80-767FEA397E8F}"/>
+    <workbookView xWindow="6080" yWindow="760" windowWidth="24680" windowHeight="19880" xr2:uid="{095DD224-26E5-234F-8D80-767FEA397E8F}"/>
   </bookViews>
   <sheets>
     <sheet name="일반 정보" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="154">
   <si>
     <t>2020-01</t>
   </si>
@@ -1062,8 +1062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAEA4F6C-C3FC-9D47-8AF9-8145AF5ECF56}">
   <dimension ref="A1:AH18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1598,10 +1598,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21C70409-2E65-8A49-8BF6-5B5C0C768FB2}">
-  <dimension ref="A1:AH57"/>
+  <dimension ref="A1:V57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1609,181 +1609,145 @@
     <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:22">
       <c r="A1" t="s">
         <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:22">
       <c r="A3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:22">
       <c r="A4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:22">
       <c r="A5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:22">
       <c r="A6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:22">
       <c r="A7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:22">
       <c r="A8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:22">
       <c r="A9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:22">
       <c r="A10" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:22">
       <c r="A11" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:22">
       <c r="A12" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:22">
       <c r="A13" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:22">
       <c r="A14" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:22">
       <c r="A15" s="5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:22">
       <c r="A16" s="5" t="s">
         <v>76</v>
       </c>
@@ -2001,10 +1965,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64150CD6-BA7E-DC4A-A425-26D496C6368C}">
-  <dimension ref="A1:AH57"/>
+  <dimension ref="A1:V57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -2012,181 +1976,145 @@
     <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:22">
       <c r="A1" t="s">
         <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:22">
       <c r="A3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:22">
       <c r="A4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:22">
       <c r="A5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:22">
       <c r="A6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:22">
       <c r="A7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:22">
       <c r="A8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:22">
       <c r="A9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:22">
       <c r="A10" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:22">
       <c r="A11" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:22">
       <c r="A12" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:22">
       <c r="A13" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:22">
       <c r="A14" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:22">
       <c r="A15" s="5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:22">
       <c r="A16" s="5" t="s">
         <v>76</v>
       </c>
@@ -2407,7 +2335,7 @@
   <dimension ref="A1:AS45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -3276,8 +3204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF65D35E-C42A-E645-84F5-D5078207028E}">
   <dimension ref="B1:W73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>

--- a/Result/제주EV충전 EDA.xlsx
+++ b/Result/제주EV충전 EDA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/1112658/PycharmProjects/electric_damand/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E8B4DAA-6B61-7B4F-8EA1-50A0DF27B648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{571568C5-4CF7-A44F-8AC5-F68F9B255C7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6080" yWindow="760" windowWidth="24680" windowHeight="19880" xr2:uid="{095DD224-26E5-234F-8D80-767FEA397E8F}"/>
+    <workbookView xWindow="16960" yWindow="760" windowWidth="24680" windowHeight="19880" activeTab="5" xr2:uid="{095DD224-26E5-234F-8D80-767FEA397E8F}"/>
   </bookViews>
   <sheets>
     <sheet name="일반 정보" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,9 @@
     <sheet name="충전횟수_지역별" sheetId="4" r:id="rId3"/>
     <sheet name="행정동별 급속충전기수" sheetId="3" r:id="rId4"/>
     <sheet name="충전패턴" sheetId="5" r:id="rId5"/>
+    <sheet name="충전량 탑30" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="168">
   <si>
     <t>2020-01</t>
   </si>
@@ -550,6 +551,62 @@
   </si>
   <si>
     <t>시각</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>(2021.01~2022.06)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>월 평균 충전횟수(회)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>봄(3~5)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>여름(6~8)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>가을(9~11)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>겨울(12~2)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>평균 이용시간</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>월 평균 이용시간(H)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>순위</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>운영기관</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>충전소 이름</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zone(변전소 기준)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>일 평균 이용횟수</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>일 평균 이용시간</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -560,7 +617,7 @@
   <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -607,6 +664,21 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕 (본문)"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕 (본문)"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -678,7 +750,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -705,18 +777,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -727,23 +789,36 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1060,10 +1135,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAEA4F6C-C3FC-9D47-8AF9-8145AF5ECF56}">
-  <dimension ref="A1:AH18"/>
+  <dimension ref="A1:AH29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1159,7 +1234,7 @@
       <c r="AD1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AE1" s="20" t="s">
         <v>29</v>
       </c>
       <c r="AF1" s="1" t="s">
@@ -1177,135 +1252,135 @@
         <v>33</v>
       </c>
       <c r="B2" s="2">
-        <f ca="1">SUM(B1:$C$45)</f>
+        <f ca="1">SUM(B1:$C$46)</f>
         <v>15655</v>
       </c>
       <c r="C2" s="2">
-        <f ca="1">SUM($C1:C$45)</f>
+        <f ca="1">SUM($C1:C$46)</f>
         <v>16079</v>
       </c>
       <c r="D2" s="2">
-        <f ca="1">SUM($C1:D$45)</f>
+        <f ca="1">SUM($C1:D$46)</f>
         <v>16371</v>
       </c>
       <c r="E2" s="2">
-        <f ca="1">SUM($C1:E$45)</f>
+        <f ca="1">SUM($C1:E$46)</f>
         <v>16735</v>
       </c>
       <c r="F2" s="2">
-        <f ca="1">SUM($C1:F$45)</f>
+        <f ca="1">SUM($C1:F$46)</f>
         <v>17074</v>
       </c>
       <c r="G2" s="2">
-        <f ca="1">SUM($C1:G$45)</f>
+        <f ca="1">SUM($C1:G$46)</f>
         <v>17431</v>
       </c>
       <c r="H2" s="2">
-        <f ca="1">SUM($C1:H$45)</f>
+        <f ca="1">SUM($C1:H$46)</f>
         <v>17908</v>
       </c>
       <c r="I2" s="2">
-        <f ca="1">SUM($C1:I$45)</f>
+        <f ca="1">SUM($C1:I$46)</f>
         <v>18541</v>
       </c>
       <c r="J2" s="2">
-        <f ca="1">SUM($C1:J$45)</f>
+        <f ca="1">SUM($C1:J$46)</f>
         <v>19081</v>
       </c>
       <c r="K2" s="2">
-        <f ca="1">SUM($C1:K$45)</f>
+        <f ca="1">SUM($C1:K$46)</f>
         <v>19251</v>
       </c>
       <c r="L2" s="2">
-        <f ca="1">SUM($C1:L$45)</f>
+        <f ca="1">SUM($C1:L$46)</f>
         <v>19377</v>
       </c>
       <c r="M2" s="2">
-        <f ca="1">SUM($C1:M$45)</f>
+        <f ca="1">SUM($C1:M$46)</f>
         <v>19451</v>
       </c>
       <c r="N2" s="2">
-        <f ca="1">SUM($C1:N$45)</f>
+        <f ca="1">SUM($C1:N$46)</f>
         <v>19457</v>
       </c>
       <c r="O2" s="2">
-        <f ca="1">SUM($C1:O$45)</f>
+        <f ca="1">SUM($C1:O$46)</f>
         <v>19644</v>
       </c>
       <c r="P2" s="2">
-        <f ca="1">SUM($C1:P$45)</f>
+        <f ca="1">SUM($C1:P$46)</f>
         <v>20205</v>
       </c>
       <c r="Q2" s="2">
-        <f ca="1">SUM($C1:Q$45)</f>
+        <f ca="1">SUM($C1:Q$46)</f>
         <v>20413</v>
       </c>
       <c r="R2" s="2">
-        <f ca="1">SUM($C1:R$45)</f>
+        <f ca="1">SUM($C1:R$46)</f>
         <v>20636</v>
       </c>
       <c r="S2" s="2">
-        <f ca="1">SUM($C1:S$45)</f>
+        <f ca="1">SUM($C1:S$46)</f>
         <v>21385</v>
       </c>
       <c r="T2" s="2">
-        <f ca="1">SUM($C1:T$45)</f>
+        <f ca="1">SUM($C1:T$46)</f>
         <v>21928</v>
       </c>
       <c r="U2" s="2">
-        <f ca="1">SUM($C1:U$45)</f>
+        <f ca="1">SUM($C1:U$46)</f>
         <v>22296</v>
       </c>
       <c r="V2" s="2">
-        <f ca="1">SUM($C1:V$45)</f>
+        <f ca="1">SUM($C1:V$46)</f>
         <v>22679</v>
       </c>
       <c r="W2" s="2">
-        <f ca="1">SUM($C1:W$45)</f>
+        <f ca="1">SUM($C1:W$46)</f>
         <v>23340</v>
       </c>
       <c r="X2" s="2">
-        <f ca="1">SUM($C1:X$45)</f>
+        <f ca="1">SUM($C1:X$46)</f>
         <v>24437</v>
       </c>
       <c r="Y2" s="2">
-        <f ca="1">SUM($C1:Y$45)</f>
+        <f ca="1">SUM($C1:Y$46)</f>
         <v>24725</v>
       </c>
       <c r="Z2" s="2">
-        <f ca="1">SUM($C1:Z$45)</f>
+        <f ca="1">SUM($C1:Z$46)</f>
         <v>24767</v>
       </c>
       <c r="AA2" s="2">
-        <f ca="1">SUM($C1:AA$45)</f>
+        <f ca="1">SUM($C1:AA$46)</f>
         <v>25463</v>
       </c>
       <c r="AB2" s="2">
-        <f ca="1">SUM($C1:AB$45)</f>
+        <f ca="1">SUM($C1:AB$46)</f>
         <v>26051</v>
       </c>
       <c r="AC2" s="2">
-        <f ca="1">SUM($C1:AC$45)</f>
+        <f ca="1">SUM($C1:AC$46)</f>
         <v>26429</v>
       </c>
       <c r="AD2" s="2">
-        <f ca="1">SUM($C1:AD$45)</f>
+        <f ca="1">SUM($C1:AD$46)</f>
         <v>26801</v>
       </c>
-      <c r="AE2" s="2">
-        <f ca="1">SUM($C1:AE$45)</f>
+      <c r="AE2" s="21">
+        <f ca="1">SUM($C1:AE$46)</f>
         <v>27245</v>
       </c>
       <c r="AF2" s="2">
-        <f ca="1">SUM($C1:AF$45)</f>
+        <f ca="1">SUM($C1:AF$46)</f>
         <v>27940</v>
       </c>
       <c r="AG2" s="2">
-        <f ca="1">SUM($C1:AG$45)</f>
+        <f ca="1">SUM($C1:AG$46)</f>
         <v>28572</v>
       </c>
       <c r="AH2" s="2">
-        <f ca="1">SUM($C1:AH$45)</f>
+        <f ca="1">SUM($C1:AH$46)</f>
         <v>29553</v>
       </c>
     </row>
@@ -1313,7 +1388,7 @@
       <c r="A3" t="s">
         <v>34</v>
       </c>
-      <c r="AE3">
+      <c r="AE3" s="22">
         <v>473</v>
       </c>
     </row>
@@ -1321,274 +1396,394 @@
       <c r="A4" t="s">
         <v>35</v>
       </c>
+      <c r="AE4" s="22"/>
     </row>
     <row r="5" spans="1:34">
       <c r="A5" t="s">
         <v>36</v>
       </c>
+      <c r="AE5" s="22"/>
     </row>
     <row r="6" spans="1:34">
       <c r="A6" t="s">
         <v>37</v>
       </c>
+      <c r="AE6" s="22"/>
     </row>
     <row r="7" spans="1:34">
       <c r="A7" t="s">
-        <v>73</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="AE7" s="22"/>
     </row>
     <row r="8" spans="1:34">
       <c r="A8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE8" s="22"/>
+    </row>
+    <row r="9" spans="1:34">
+      <c r="A9" t="s">
         <v>74</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B9" s="4">
         <f ca="1">B2/B4</f>
         <v>0</v>
       </c>
-      <c r="C8" s="4">
-        <f t="shared" ref="C8:AH8" ca="1" si="0">C2/C4</f>
+      <c r="C9" s="4">
+        <f t="shared" ref="C9:AH9" ca="1" si="0">C2/C4</f>
         <v>0</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D9" s="4">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E9" s="4">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F9" s="4">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G9" s="4">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H9" s="4">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I9" s="4">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J9" s="4">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K9" s="4">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L9" s="4">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="M8" s="4">
+      <c r="M9" s="4">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N9" s="4">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="O8" s="4">
+      <c r="O9" s="4">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="P8" s="4">
+      <c r="P9" s="4">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q8" s="4">
+      <c r="Q9" s="4">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="R8" s="4">
+      <c r="R9" s="4">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="S8" s="4">
+      <c r="S9" s="4">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="T8" s="4">
+      <c r="T9" s="4">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="U8" s="4">
+      <c r="U9" s="4">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="V8" s="4">
+      <c r="V9" s="4">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="W8" s="4">
+      <c r="W9" s="4">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="X8" s="4">
+      <c r="X9" s="4">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="Y8" s="4">
+      <c r="Y9" s="4">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z8" s="4">
+      <c r="Z9" s="4">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="AA8" s="4">
+      <c r="AA9" s="4">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB8" s="4">
+      <c r="AB9" s="4">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="AC8" s="4">
+      <c r="AC9" s="4">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="AD8" s="4">
+      <c r="AD9" s="4">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE8" s="4">
+      <c r="AE9" s="23">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="AF8" s="4">
+      <c r="AF9" s="4">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="AG8" s="4">
+      <c r="AG9" s="4">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="AH8" s="4">
+      <c r="AH9" s="4">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
-      <c r="F9" s="3" t="s">
+    <row r="10" spans="1:34">
+      <c r="F10" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" t="s">
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" t="s">
         <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:34">
-      <c r="C10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" t="s">
-        <v>62</v>
-      </c>
-      <c r="G10" t="s">
-        <v>63</v>
-      </c>
-      <c r="H10" t="s">
-        <v>64</v>
-      </c>
-      <c r="I10" t="s">
-        <v>65</v>
-      </c>
-      <c r="J10" t="s">
-        <v>66</v>
-      </c>
-      <c r="K10" t="s">
-        <v>67</v>
-      </c>
-      <c r="L10" t="s">
-        <v>68</v>
-      </c>
-      <c r="M10" t="s">
-        <v>69</v>
-      </c>
-      <c r="N10" t="s">
-        <v>70</v>
-      </c>
-      <c r="O10" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:34">
       <c r="A11" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H11" t="s">
+        <v>64</v>
+      </c>
+      <c r="I11" t="s">
+        <v>65</v>
+      </c>
+      <c r="J11" t="s">
+        <v>66</v>
+      </c>
+      <c r="K11" t="s">
+        <v>67</v>
+      </c>
+      <c r="L11" t="s">
+        <v>68</v>
+      </c>
+      <c r="M11" t="s">
+        <v>69</v>
+      </c>
+      <c r="N11" t="s">
+        <v>70</v>
+      </c>
+      <c r="O11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34">
+      <c r="A12" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
-      <c r="A12" s="3"/>
-      <c r="B12" t="s">
+    <row r="13" spans="1:34">
+      <c r="A13" s="17"/>
+      <c r="B13" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
-      <c r="A13" s="3"/>
-      <c r="B13" t="s">
+    <row r="14" spans="1:34">
+      <c r="A14" s="17"/>
+      <c r="B14" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
-      <c r="A14" s="3"/>
-      <c r="B14" t="s">
+    <row r="15" spans="1:34">
+      <c r="A15" s="17"/>
+      <c r="B15" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
-      <c r="A15" s="3"/>
-      <c r="B15" t="s">
+    <row r="16" spans="1:34">
+      <c r="A16" s="17"/>
+      <c r="B16" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
-      <c r="A16" s="3"/>
-      <c r="B16" t="s">
+    <row r="17" spans="1:9">
+      <c r="A17" s="17"/>
+      <c r="B17" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="3" t="s">
+    <row r="18" spans="1:9">
+      <c r="A18" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="3"/>
-      <c r="B18" t="s">
+    <row r="19" spans="1:9">
+      <c r="A19" s="17"/>
+      <c r="B19" t="s">
         <v>60</v>
       </c>
     </row>
+    <row r="25" spans="1:9">
+      <c r="B25" s="17">
+        <v>2021</v>
+      </c>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="3">
+        <v>2022</v>
+      </c>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="B26" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" t="s">
+        <v>155</v>
+      </c>
+      <c r="B27" t="e">
+        <f>AVERAGE(P6:R6)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C27" t="e">
+        <f>AVERAGE(S6:U6)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D27" t="e">
+        <f>AVERAGE(V6:X6)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E27" t="e">
+        <f>AVERAGE(Y6:AA6)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F27" t="e">
+        <f>AVERAGE(AB6:AD6)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" t="s">
+        <v>161</v>
+      </c>
+      <c r="B28" t="e">
+        <f>AVERAGE(P7:R7)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C28" t="e">
+        <f>AVERAGE(S7:U7)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D28" t="e">
+        <f>AVERAGE(V7:X7)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E28" t="e">
+        <f>AVERAGE(Y7:AA7)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F28" t="e">
+        <f>AVERAGE(AB7:AD7)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" t="e">
+        <f>AVERAGE(P5:R5)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C29" t="e">
+        <f>AVERAGE(S5:U5)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D29" t="e">
+        <f>AVERAGE(V5:X5)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E29" t="e">
+        <f>AVERAGE(Y5:AA5)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F29" t="e">
+        <f>AVERAGE(AB5:AD5)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A11:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="F9:O9"/>
+  <mergeCells count="4">
+    <mergeCell ref="A12:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="F10:O10"/>
+    <mergeCell ref="B25:E25"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2349,14 +2544,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45">
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="E1" s="3" t="s">
+      <c r="C1" s="17"/>
+      <c r="E1" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="F1" s="3"/>
+      <c r="F1" s="17"/>
     </row>
     <row r="2" spans="1:45" s="7" customFormat="1">
       <c r="A2" s="7" t="s">
@@ -2432,7 +2627,7 @@
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
-      <c r="G3" s="10" t="e">
+      <c r="G3" s="5" t="e">
         <f>F3/C3</f>
         <v>#DIV/0!</v>
       </c>
@@ -2487,7 +2682,7 @@
         <f t="shared" ref="D4:D45" si="0">B4/C4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G4" s="10" t="e">
+      <c r="G4" s="5" t="e">
         <f t="shared" ref="G4:G45" si="1">F4/C4</f>
         <v>#DIV/0!</v>
       </c>
@@ -2504,7 +2699,7 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G5" s="10" t="e">
+      <c r="G5" s="5" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -2521,7 +2716,7 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G6" s="10" t="e">
+      <c r="G6" s="5" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -2538,7 +2733,7 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G7" s="10" t="e">
+      <c r="G7" s="5" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -2555,7 +2750,7 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G8" s="10" t="e">
+      <c r="G8" s="5" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -2572,7 +2767,7 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G9" s="10" t="e">
+      <c r="G9" s="5" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -2589,7 +2784,7 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G10" s="10" t="e">
+      <c r="G10" s="5" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -2606,7 +2801,7 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G11" s="10" t="e">
+      <c r="G11" s="5" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -2623,7 +2818,7 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G12" s="10" t="e">
+      <c r="G12" s="5" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -2640,7 +2835,7 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G13" s="10" t="e">
+      <c r="G13" s="5" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -2657,7 +2852,7 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G14" s="10" t="e">
+      <c r="G14" s="5" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -2674,7 +2869,7 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G15" s="10" t="e">
+      <c r="G15" s="5" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -2691,7 +2886,7 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G16" s="10" t="e">
+      <c r="G16" s="5" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -2708,7 +2903,7 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G17" s="10" t="e">
+      <c r="G17" s="5" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -2725,7 +2920,7 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G18" s="10" t="e">
+      <c r="G18" s="5" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -2742,7 +2937,7 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G19" s="10" t="e">
+      <c r="G19" s="5" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -2759,7 +2954,7 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G20" s="10" t="e">
+      <c r="G20" s="5" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -2776,7 +2971,7 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G21" s="10" t="e">
+      <c r="G21" s="5" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -2793,7 +2988,7 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G22" s="10" t="e">
+      <c r="G22" s="5" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -2810,7 +3005,7 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G23" s="10" t="e">
+      <c r="G23" s="5" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -2827,7 +3022,7 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G24" s="10" t="e">
+      <c r="G24" s="5" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -2844,7 +3039,7 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G25" s="10" t="e">
+      <c r="G25" s="5" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -2861,7 +3056,7 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G26" s="10" t="e">
+      <c r="G26" s="5" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -2878,7 +3073,7 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G27" s="10" t="e">
+      <c r="G27" s="5" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -2895,7 +3090,7 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G28" s="10" t="e">
+      <c r="G28" s="5" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -2912,7 +3107,7 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G29" s="10" t="e">
+      <c r="G29" s="5" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -2929,7 +3124,7 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G30" s="10" t="e">
+      <c r="G30" s="5" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -2946,7 +3141,7 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G31" s="10" t="e">
+      <c r="G31" s="5" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -2963,7 +3158,7 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G32" s="10" t="e">
+      <c r="G32" s="5" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -2980,7 +3175,7 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G33" s="10" t="e">
+      <c r="G33" s="5" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -2997,7 +3192,7 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G34" s="10" t="e">
+      <c r="G34" s="5" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -3014,7 +3209,7 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G35" s="10" t="e">
+      <c r="G35" s="5" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -3031,7 +3226,7 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G36" s="10" t="e">
+      <c r="G36" s="5" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -3048,7 +3243,7 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G37" s="10" t="e">
+      <c r="G37" s="5" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -3065,7 +3260,7 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G38" s="10" t="e">
+      <c r="G38" s="5" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -3082,7 +3277,7 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G39" s="10" t="e">
+      <c r="G39" s="5" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -3099,7 +3294,7 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G40" s="10" t="e">
+      <c r="G40" s="5" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -3116,7 +3311,7 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G41" s="10" t="e">
+      <c r="G41" s="5" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -3133,7 +3328,7 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G42" s="10" t="e">
+      <c r="G42" s="5" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -3150,7 +3345,7 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G43" s="10" t="e">
+      <c r="G43" s="5" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -3167,7 +3362,7 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G44" s="10" t="e">
+      <c r="G44" s="5" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -3184,7 +3379,7 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G45" s="10" t="e">
+      <c r="G45" s="5" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -3204,489 +3399,624 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF65D35E-C42A-E645-84F5-D5078207028E}">
   <dimension ref="B1:W73"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="2" width="10.7109375" style="12"/>
+    <col min="2" max="2" width="10.7109375" style="10"/>
     <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" style="18" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" style="12"/>
-    <col min="14" max="14" width="10.7109375" style="12"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" style="10"/>
+    <col min="14" max="14" width="10.7109375" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:18">
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3" t="s">
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="13" t="s">
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="11" t="s">
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-    </row>
-    <row r="2" spans="2:18" s="15" customFormat="1">
-      <c r="B2" s="16" t="s">
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+    </row>
+    <row r="2" spans="2:18" s="11" customFormat="1">
+      <c r="B2" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="J2" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="L2" s="15" t="s">
+      <c r="L2" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="M2" s="15" t="s">
+      <c r="M2" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="N2" s="16" t="s">
+      <c r="N2" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="O2" s="17" t="s">
+      <c r="O2" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="P2" s="17" t="s">
+      <c r="P2" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="Q2" s="17" t="s">
+      <c r="Q2" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="R2" s="17" t="s">
+      <c r="R2" s="13" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="3" spans="2:18">
-      <c r="B3" s="12">
+      <c r="B3" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="2:18">
-      <c r="B4" s="12">
+      <c r="B4" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="2:18">
-      <c r="B5" s="12">
+      <c r="B5" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="2:18">
-      <c r="B6" s="12">
+      <c r="B6" s="10">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="2:18">
-      <c r="B7" s="12">
+      <c r="B7" s="10">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="2:18">
-      <c r="B8" s="12">
+      <c r="B8" s="10">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="2:18">
-      <c r="B9" s="12">
+      <c r="B9" s="10">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="2:18">
-      <c r="B10" s="12">
+      <c r="B10" s="10">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="2:18">
-      <c r="B11" s="12">
+      <c r="B11" s="10">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="2:18">
-      <c r="B12" s="12">
+      <c r="B12" s="10">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="2:18">
-      <c r="B13" s="12">
+      <c r="B13" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="2:18">
-      <c r="B14" s="12">
+      <c r="B14" s="10">
         <v>11</v>
       </c>
     </row>
     <row r="15" spans="2:18">
-      <c r="B15" s="12">
+      <c r="B15" s="10">
         <v>12</v>
       </c>
     </row>
     <row r="16" spans="2:18">
-      <c r="B16" s="12">
+      <c r="B16" s="10">
         <v>13</v>
       </c>
     </row>
     <row r="17" spans="2:23">
-      <c r="B17" s="12">
+      <c r="B17" s="10">
         <v>14</v>
       </c>
     </row>
     <row r="18" spans="2:23">
-      <c r="B18" s="12">
+      <c r="B18" s="10">
         <v>15</v>
       </c>
     </row>
     <row r="19" spans="2:23">
-      <c r="B19" s="12">
+      <c r="B19" s="10">
         <v>16</v>
       </c>
     </row>
     <row r="20" spans="2:23">
-      <c r="B20" s="12">
+      <c r="B20" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="21" spans="2:23">
-      <c r="B21" s="12">
+      <c r="B21" s="10">
         <v>18</v>
       </c>
     </row>
     <row r="22" spans="2:23">
-      <c r="B22" s="12">
+      <c r="B22" s="10">
         <v>19</v>
       </c>
     </row>
     <row r="23" spans="2:23">
-      <c r="B23" s="12">
+      <c r="B23" s="10">
         <v>20</v>
       </c>
     </row>
     <row r="24" spans="2:23">
-      <c r="B24" s="12">
+      <c r="B24" s="10">
         <v>21</v>
       </c>
     </row>
     <row r="25" spans="2:23">
-      <c r="B25" s="12">
+      <c r="B25" s="10">
         <v>22</v>
       </c>
     </row>
     <row r="26" spans="2:23">
-      <c r="B26" s="12">
+      <c r="B26" s="10">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="2:23" s="18" customFormat="1"/>
-    <row r="28" spans="2:23" s="18" customFormat="1"/>
-    <row r="29" spans="2:23" s="18" customFormat="1">
-      <c r="C29" s="18" t="s">
+    <row r="27" spans="2:23">
+      <c r="B27"/>
+      <c r="F27"/>
+      <c r="J27"/>
+      <c r="N27"/>
+    </row>
+    <row r="28" spans="2:23">
+      <c r="B28"/>
+      <c r="F28"/>
+      <c r="J28"/>
+      <c r="N28"/>
+    </row>
+    <row r="29" spans="2:23">
+      <c r="B29"/>
+      <c r="C29" t="s">
         <v>130</v>
       </c>
-      <c r="I29" s="12"/>
-      <c r="J29" s="18" t="s">
+      <c r="F29"/>
+      <c r="I29" s="10"/>
+      <c r="J29" t="s">
         <v>151</v>
       </c>
-      <c r="P29" s="12"/>
-      <c r="Q29" s="18" t="s">
+      <c r="N29"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="30" spans="2:23" s="18" customFormat="1">
-      <c r="B30" s="19" t="s">
+    <row r="30" spans="2:23">
+      <c r="B30" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="C30" s="20" t="s">
+      <c r="C30" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="D30" s="20" t="s">
+      <c r="D30" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="E30" s="20" t="s">
+      <c r="E30" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="F30" s="21" t="s">
+      <c r="F30" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="G30" s="21" t="s">
+      <c r="G30" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="H30" s="21" t="s">
+      <c r="H30" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="I30" s="22" t="s">
+      <c r="I30" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="J30" s="20" t="s">
+      <c r="J30" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="K30" s="20" t="s">
+      <c r="K30" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="L30" s="20" t="s">
+      <c r="L30" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="M30" s="21" t="s">
+      <c r="M30" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="N30" s="21" t="s">
+      <c r="N30" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="O30" s="21" t="s">
+      <c r="O30" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="P30" s="22" t="s">
+      <c r="P30" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="Q30" s="23" t="s">
+      <c r="Q30" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="R30" s="23" t="s">
+      <c r="R30" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="S30" s="23" t="s">
+      <c r="S30" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="T30" s="23" t="s">
+      <c r="T30" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="U30" s="23" t="s">
+      <c r="U30" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="V30" s="23" t="s">
+      <c r="V30" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="W30" s="23" t="s">
+      <c r="W30" s="16" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="31" spans="2:23" s="18" customFormat="1">
-      <c r="B31" s="12">
+    <row r="31" spans="2:23">
+      <c r="B31" s="10">
         <v>0</v>
       </c>
-      <c r="I31" s="12"/>
-      <c r="P31" s="12"/>
-    </row>
-    <row r="32" spans="2:23" s="18" customFormat="1">
-      <c r="B32" s="12">
+      <c r="F31"/>
+      <c r="I31" s="10"/>
+      <c r="J31"/>
+      <c r="N31"/>
+      <c r="P31" s="10"/>
+    </row>
+    <row r="32" spans="2:23">
+      <c r="B32" s="10">
         <v>1</v>
       </c>
-      <c r="I32" s="12"/>
-      <c r="P32" s="12"/>
-    </row>
-    <row r="33" spans="2:16" s="18" customFormat="1">
-      <c r="B33" s="12">
+      <c r="F32"/>
+      <c r="I32" s="10"/>
+      <c r="J32"/>
+      <c r="N32"/>
+      <c r="P32" s="10"/>
+    </row>
+    <row r="33" spans="2:16">
+      <c r="B33" s="10">
         <v>2</v>
       </c>
-      <c r="I33" s="12"/>
-      <c r="P33" s="12"/>
-    </row>
-    <row r="34" spans="2:16" s="18" customFormat="1">
-      <c r="B34" s="12">
+      <c r="F33"/>
+      <c r="I33" s="10"/>
+      <c r="J33"/>
+      <c r="N33"/>
+      <c r="P33" s="10"/>
+    </row>
+    <row r="34" spans="2:16">
+      <c r="B34" s="10">
         <v>3</v>
       </c>
-      <c r="I34" s="12"/>
-      <c r="P34" s="12"/>
-    </row>
-    <row r="35" spans="2:16" s="18" customFormat="1">
-      <c r="B35" s="12">
+      <c r="F34"/>
+      <c r="I34" s="10"/>
+      <c r="J34"/>
+      <c r="N34"/>
+      <c r="P34" s="10"/>
+    </row>
+    <row r="35" spans="2:16">
+      <c r="B35" s="10">
         <v>4</v>
       </c>
-      <c r="I35" s="12"/>
-      <c r="P35" s="12"/>
-    </row>
-    <row r="36" spans="2:16" s="18" customFormat="1">
-      <c r="B36" s="12">
+      <c r="F35"/>
+      <c r="I35" s="10"/>
+      <c r="J35"/>
+      <c r="N35"/>
+      <c r="P35" s="10"/>
+    </row>
+    <row r="36" spans="2:16">
+      <c r="B36" s="10">
         <v>5</v>
       </c>
-      <c r="I36" s="12"/>
-      <c r="P36" s="12"/>
-    </row>
-    <row r="37" spans="2:16" s="18" customFormat="1">
-      <c r="B37" s="12">
+      <c r="F36"/>
+      <c r="I36" s="10"/>
+      <c r="J36"/>
+      <c r="N36"/>
+      <c r="P36" s="10"/>
+    </row>
+    <row r="37" spans="2:16">
+      <c r="B37" s="10">
         <v>6</v>
       </c>
-      <c r="I37" s="12"/>
-      <c r="P37" s="12"/>
-    </row>
-    <row r="38" spans="2:16" s="18" customFormat="1">
-      <c r="B38" s="12">
+      <c r="F37"/>
+      <c r="I37" s="10"/>
+      <c r="J37"/>
+      <c r="N37"/>
+      <c r="P37" s="10"/>
+    </row>
+    <row r="38" spans="2:16">
+      <c r="B38" s="10">
         <v>7</v>
       </c>
-      <c r="I38" s="12"/>
-      <c r="P38" s="12"/>
-    </row>
-    <row r="39" spans="2:16" s="18" customFormat="1">
-      <c r="B39" s="12">
+      <c r="F38"/>
+      <c r="I38" s="10"/>
+      <c r="J38"/>
+      <c r="N38"/>
+      <c r="P38" s="10"/>
+    </row>
+    <row r="39" spans="2:16">
+      <c r="B39" s="10">
         <v>8</v>
       </c>
-      <c r="I39" s="12"/>
-      <c r="P39" s="12"/>
-    </row>
-    <row r="40" spans="2:16" s="18" customFormat="1">
-      <c r="B40" s="12">
+      <c r="F39"/>
+      <c r="I39" s="10"/>
+      <c r="J39"/>
+      <c r="N39"/>
+      <c r="P39" s="10"/>
+    </row>
+    <row r="40" spans="2:16">
+      <c r="B40" s="10">
         <v>9</v>
       </c>
-      <c r="I40" s="12"/>
-      <c r="P40" s="12"/>
-    </row>
-    <row r="41" spans="2:16" s="18" customFormat="1">
-      <c r="B41" s="12">
+      <c r="F40"/>
+      <c r="I40" s="10"/>
+      <c r="J40"/>
+      <c r="N40"/>
+      <c r="P40" s="10"/>
+    </row>
+    <row r="41" spans="2:16">
+      <c r="B41" s="10">
         <v>10</v>
       </c>
-      <c r="I41" s="12"/>
-      <c r="P41" s="12"/>
-    </row>
-    <row r="42" spans="2:16" s="18" customFormat="1">
-      <c r="B42" s="12">
+      <c r="F41"/>
+      <c r="I41" s="10"/>
+      <c r="J41"/>
+      <c r="N41"/>
+      <c r="P41" s="10"/>
+    </row>
+    <row r="42" spans="2:16">
+      <c r="B42" s="10">
         <v>11</v>
       </c>
-      <c r="I42" s="12"/>
-      <c r="P42" s="12"/>
-    </row>
-    <row r="43" spans="2:16" s="18" customFormat="1">
-      <c r="B43" s="12">
+      <c r="F42"/>
+      <c r="I42" s="10"/>
+      <c r="J42"/>
+      <c r="N42"/>
+      <c r="P42" s="10"/>
+    </row>
+    <row r="43" spans="2:16">
+      <c r="B43" s="10">
         <v>12</v>
       </c>
-      <c r="I43" s="12"/>
-      <c r="P43" s="12"/>
-    </row>
-    <row r="44" spans="2:16" s="18" customFormat="1">
-      <c r="B44" s="12">
+      <c r="F43"/>
+      <c r="I43" s="10"/>
+      <c r="J43"/>
+      <c r="N43"/>
+      <c r="P43" s="10"/>
+    </row>
+    <row r="44" spans="2:16">
+      <c r="B44" s="10">
         <v>13</v>
       </c>
-      <c r="I44" s="12"/>
-      <c r="P44" s="12"/>
-    </row>
-    <row r="45" spans="2:16" s="18" customFormat="1">
-      <c r="B45" s="12">
+      <c r="F44"/>
+      <c r="I44" s="10"/>
+      <c r="J44"/>
+      <c r="N44"/>
+      <c r="P44" s="10"/>
+    </row>
+    <row r="45" spans="2:16">
+      <c r="B45" s="10">
         <v>14</v>
       </c>
-      <c r="I45" s="12"/>
-      <c r="P45" s="12"/>
-    </row>
-    <row r="46" spans="2:16" s="18" customFormat="1">
-      <c r="B46" s="12">
+      <c r="F45"/>
+      <c r="I45" s="10"/>
+      <c r="J45"/>
+      <c r="N45"/>
+      <c r="P45" s="10"/>
+    </row>
+    <row r="46" spans="2:16">
+      <c r="B46" s="10">
         <v>15</v>
       </c>
-      <c r="I46" s="12"/>
-      <c r="P46" s="12"/>
-    </row>
-    <row r="47" spans="2:16" s="18" customFormat="1">
-      <c r="B47" s="12">
+      <c r="F46"/>
+      <c r="I46" s="10"/>
+      <c r="J46"/>
+      <c r="N46"/>
+      <c r="P46" s="10"/>
+    </row>
+    <row r="47" spans="2:16">
+      <c r="B47" s="10">
         <v>16</v>
       </c>
-      <c r="I47" s="12"/>
-      <c r="P47" s="12"/>
-    </row>
-    <row r="48" spans="2:16" s="18" customFormat="1">
-      <c r="B48" s="12">
+      <c r="F47"/>
+      <c r="I47" s="10"/>
+      <c r="J47"/>
+      <c r="N47"/>
+      <c r="P47" s="10"/>
+    </row>
+    <row r="48" spans="2:16">
+      <c r="B48" s="10">
         <v>17</v>
       </c>
-      <c r="I48" s="12"/>
-      <c r="P48" s="12"/>
-    </row>
-    <row r="49" spans="2:16" s="18" customFormat="1">
-      <c r="B49" s="12">
+      <c r="F48"/>
+      <c r="I48" s="10"/>
+      <c r="J48"/>
+      <c r="N48"/>
+      <c r="P48" s="10"/>
+    </row>
+    <row r="49" spans="2:16">
+      <c r="B49" s="10">
         <v>18</v>
       </c>
-      <c r="I49" s="12"/>
-      <c r="P49" s="12"/>
-    </row>
-    <row r="50" spans="2:16" s="18" customFormat="1">
-      <c r="B50" s="12">
+      <c r="F49"/>
+      <c r="I49" s="10"/>
+      <c r="J49"/>
+      <c r="N49"/>
+      <c r="P49" s="10"/>
+    </row>
+    <row r="50" spans="2:16">
+      <c r="B50" s="10">
         <v>19</v>
       </c>
-      <c r="I50" s="12"/>
-      <c r="P50" s="12"/>
-    </row>
-    <row r="51" spans="2:16" s="18" customFormat="1">
-      <c r="B51" s="12">
+      <c r="F50"/>
+      <c r="I50" s="10"/>
+      <c r="J50"/>
+      <c r="N50"/>
+      <c r="P50" s="10"/>
+    </row>
+    <row r="51" spans="2:16">
+      <c r="B51" s="10">
         <v>20</v>
       </c>
-      <c r="I51" s="12"/>
-      <c r="P51" s="12"/>
-    </row>
-    <row r="52" spans="2:16" s="18" customFormat="1">
-      <c r="B52" s="12">
+      <c r="F51"/>
+      <c r="I51" s="10"/>
+      <c r="J51"/>
+      <c r="N51"/>
+      <c r="P51" s="10"/>
+    </row>
+    <row r="52" spans="2:16">
+      <c r="B52" s="10">
         <v>21</v>
       </c>
-      <c r="I52" s="12"/>
-      <c r="P52" s="12"/>
-    </row>
-    <row r="53" spans="2:16" s="18" customFormat="1">
-      <c r="B53" s="12">
+      <c r="F52"/>
+      <c r="I52" s="10"/>
+      <c r="J52"/>
+      <c r="N52"/>
+      <c r="P52" s="10"/>
+    </row>
+    <row r="53" spans="2:16">
+      <c r="B53" s="10">
         <v>22</v>
       </c>
-      <c r="I53" s="12"/>
-      <c r="P53" s="12"/>
-    </row>
-    <row r="54" spans="2:16" s="18" customFormat="1">
-      <c r="B54" s="12">
+      <c r="F53"/>
+      <c r="I53" s="10"/>
+      <c r="J53"/>
+      <c r="N53"/>
+      <c r="P53" s="10"/>
+    </row>
+    <row r="54" spans="2:16">
+      <c r="B54" s="10">
         <v>23</v>
       </c>
-      <c r="I54" s="12"/>
-      <c r="P54" s="12"/>
-    </row>
-    <row r="55" spans="2:16" s="18" customFormat="1"/>
-    <row r="56" spans="2:16" s="18" customFormat="1"/>
-    <row r="57" spans="2:16" s="18" customFormat="1"/>
-    <row r="58" spans="2:16" s="18" customFormat="1"/>
-    <row r="59" spans="2:16" s="18" customFormat="1"/>
-    <row r="60" spans="2:16" s="18" customFormat="1"/>
-    <row r="61" spans="2:16" s="18" customFormat="1"/>
-    <row r="62" spans="2:16" s="18" customFormat="1"/>
-    <row r="63" spans="2:16" s="18" customFormat="1"/>
-    <row r="64" spans="2:16" s="18" customFormat="1"/>
-    <row r="65" s="18" customFormat="1"/>
-    <row r="66" s="18" customFormat="1"/>
-    <row r="67" s="18" customFormat="1"/>
-    <row r="68" s="18" customFormat="1"/>
-    <row r="69" s="18" customFormat="1"/>
-    <row r="70" s="18" customFormat="1"/>
-    <row r="71" s="18" customFormat="1"/>
-    <row r="72" s="18" customFormat="1"/>
-    <row r="73" s="18" customFormat="1"/>
+      <c r="F54"/>
+      <c r="I54" s="10"/>
+      <c r="J54"/>
+      <c r="N54"/>
+      <c r="P54" s="10"/>
+    </row>
+    <row r="55" spans="2:16">
+      <c r="B55"/>
+      <c r="F55"/>
+      <c r="J55"/>
+      <c r="N55"/>
+    </row>
+    <row r="56" spans="2:16">
+      <c r="B56"/>
+      <c r="F56"/>
+      <c r="J56"/>
+      <c r="N56"/>
+    </row>
+    <row r="57" spans="2:16">
+      <c r="B57"/>
+      <c r="F57"/>
+      <c r="J57"/>
+      <c r="N57"/>
+    </row>
+    <row r="58" spans="2:16">
+      <c r="B58"/>
+      <c r="F58"/>
+      <c r="J58"/>
+      <c r="N58"/>
+    </row>
+    <row r="59" spans="2:16">
+      <c r="B59"/>
+      <c r="F59"/>
+      <c r="J59"/>
+      <c r="N59"/>
+    </row>
+    <row r="60" spans="2:16">
+      <c r="B60"/>
+      <c r="F60"/>
+      <c r="J60"/>
+      <c r="N60"/>
+    </row>
+    <row r="61" spans="2:16">
+      <c r="B61"/>
+      <c r="F61"/>
+      <c r="J61"/>
+      <c r="N61"/>
+    </row>
+    <row r="62" spans="2:16">
+      <c r="B62"/>
+      <c r="F62"/>
+      <c r="J62"/>
+      <c r="N62"/>
+    </row>
+    <row r="63" spans="2:16">
+      <c r="B63"/>
+      <c r="F63"/>
+      <c r="J63"/>
+      <c r="N63"/>
+    </row>
+    <row r="64" spans="2:16">
+      <c r="B64"/>
+      <c r="F64"/>
+      <c r="J64"/>
+      <c r="N64"/>
+    </row>
+    <row r="65" customFormat="1"/>
+    <row r="66" customFormat="1"/>
+    <row r="67" customFormat="1"/>
+    <row r="68" customFormat="1"/>
+    <row r="69" customFormat="1"/>
+    <row r="70" customFormat="1"/>
+    <row r="71" customFormat="1"/>
+    <row r="72" customFormat="1"/>
+    <row r="73" customFormat="1"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="O1:R1"/>
@@ -3698,4 +4028,200 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{116899CA-7B03-584A-90BA-A898047A6C25}">
+  <dimension ref="A1:H31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <cols>
+    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="15.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="3" customFormat="1">
+      <c r="A1" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>